--- a/各国2012-2020粮食统计.xlsx
+++ b/各国2012-2020粮食统计.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744F727E-8DA9-4B3A-ADEB-499507C1990D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9908140E-A027-4F9F-93C8-35C90D6D8294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Argentina</t>
   </si>
@@ -100,6 +101,18 @@
     <t>2016-2020平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>日程表</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>趋势预测</t>
+  </si>
+  <si>
+    <t>置信区间</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -149,11 +162,23 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -164,6 +189,1373 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>2318.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2557.7800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2608.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2584.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2661.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2693.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2647.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2707.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2744.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B34-4905-A668-29DD682FED1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>趋势预测</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$D$2:$D$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="39"/>
+                  <c:pt idx="9">
+                    <c:v>126.65795706517667</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>170.48560939252042</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>205.2251741069465</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>234.94330678753681</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>261.35862535130468</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>285.38977748946394</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>307.59611772359068</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>328.34814261606186</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>347.90623814806776</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>366.46165839261829</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>384.1597642029655</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>401.11409188489773</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>417.41532073565355</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>433.13723269370576</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>448.34081219008033</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>463.07714979085631</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>477.38955034596682</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>491.31509677908429</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>504.88583201893141</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>518.12966718305563</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>531.07108971666207</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>543.73172282917415</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>556.13077269066559</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>568.28538973435172</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>580.21096340148506</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>591.92136472276411</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>603.42914759061841</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>614.74571700484262</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>625.88147068059857</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>636.84591899685529</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$D$2:$D$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="39"/>
+                  <c:pt idx="9">
+                    <c:v>126.65795706517667</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>170.48560939252042</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>205.2251741069465</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>234.94330678753681</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>261.35862535130468</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>285.38977748946394</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>307.59611772359068</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>328.34814261606186</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>347.90623814806776</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>366.46165839261829</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>384.1597642029655</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>401.11409188489773</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>417.41532073565355</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>433.13723269370576</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>448.34081219008033</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>463.07714979085631</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>477.38955034596682</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>491.31509677908429</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>504.88583201893141</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>518.12966718305563</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>531.07108971666207</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>543.73172282917415</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>556.13077269066559</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>568.28538973435172</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>580.21096340148506</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>591.92136472276411</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>603.42914759061841</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>614.74571700484262</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>625.88147068059857</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>636.84591899685529</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="595959">
+                    <a:alpha val="40392"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="9" formatCode="#,##0.00">
+                  <c:v>2783.673940937043</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.00">
+                  <c:v>2822.8599223355905</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0.00">
+                  <c:v>2862.0459037341384</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0.00">
+                  <c:v>2901.2318851326859</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0.00">
+                  <c:v>2940.4178665312338</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0.00">
+                  <c:v>2979.6038479297813</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0.00">
+                  <c:v>3018.7898293283292</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0.00">
+                  <c:v>3057.9758107268767</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0.00">
+                  <c:v>3097.1617921254247</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0.00">
+                  <c:v>3136.3477735239721</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0.00">
+                  <c:v>3175.5337549225201</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0.00">
+                  <c:v>3214.7197363210676</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0.00">
+                  <c:v>3253.9057177196155</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0.00">
+                  <c:v>3293.091699118163</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0.00">
+                  <c:v>3332.2776805167109</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0.00">
+                  <c:v>3371.4636619152589</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="#,##0.00">
+                  <c:v>3410.6496433138063</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="#,##0.00">
+                  <c:v>3449.8356247123538</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="#,##0.00">
+                  <c:v>3489.0216061109018</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="#,##0.00">
+                  <c:v>3528.2075875094497</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="#,##0.00">
+                  <c:v>3567.3935689079972</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="#,##0.00">
+                  <c:v>3606.5795503065451</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="#,##0.00">
+                  <c:v>3645.7655317050926</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="#,##0.00">
+                  <c:v>3684.9515131036405</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="#,##0.00">
+                  <c:v>3724.137494502188</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="#,##0.00">
+                  <c:v>3763.323475900736</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="#,##0.00">
+                  <c:v>3802.5094572992839</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="#,##0.00">
+                  <c:v>3841.6954386978314</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="#,##0.00">
+                  <c:v>3880.8814200963789</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="#,##0.00">
+                  <c:v>3920.0674014949268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B34-4905-A668-29DD682FED1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="534559360"/>
+        <c:axId val="528688224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="534559360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528688224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528688224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534559360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324802</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C7AD38-F6D4-424F-94FE-6A49928CB804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4B9D281-4B04-4A65-964F-FC1443651068}" name="表1" displayName="表1" ref="A1:D40" totalsRowShown="0">
+  <autoFilter ref="A1:D40" xr:uid="{31F8B96A-14B5-4B4E-9A71-1EF24968E822}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F480B410-5FE7-482A-AB6F-3DE27C5BEF1C}" name="日程表" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F51A4A56-B856-4B46-BE4C-CC6B89D2A350}" name="值"/>
+    <tableColumn id="3" xr3:uid="{111EB277-DCF8-47A9-97E2-77B3C436B2BE}" name="趋势预测" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$10,$A$2:$A$10,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FAEC0EF9-57E7-47E1-AE41-32D999323F26}" name="置信区间" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,11 +1820,511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD61C57-E8F0-4930-9707-CC6F150A14A5}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L24"/>
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="3" max="4" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2318.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2557.7800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2608.3000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2584.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2661.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2693.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2647.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2707.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2744.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="4">
+        <f>_xlfn.FORECAST.ETS(A11,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>2783.673940937043</v>
+      </c>
+      <c r="D11" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A11,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>126.65795706517667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="4">
+        <f>_xlfn.FORECAST.ETS(A12,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>2822.8599223355905</v>
+      </c>
+      <c r="D12" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A12,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>170.48560939252042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="4">
+        <f>_xlfn.FORECAST.ETS(A13,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>2862.0459037341384</v>
+      </c>
+      <c r="D13" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A13,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>205.2251741069465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="4">
+        <f>_xlfn.FORECAST.ETS(A14,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>2901.2318851326859</v>
+      </c>
+      <c r="D14" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A14,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>234.94330678753681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="4">
+        <f>_xlfn.FORECAST.ETS(A15,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>2940.4178665312338</v>
+      </c>
+      <c r="D15" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A15,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>261.35862535130468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C16" s="4">
+        <f>_xlfn.FORECAST.ETS(A16,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>2979.6038479297813</v>
+      </c>
+      <c r="D16" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A16,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>285.38977748946394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2027</v>
+      </c>
+      <c r="C17" s="4">
+        <f>_xlfn.FORECAST.ETS(A17,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3018.7898293283292</v>
+      </c>
+      <c r="D17" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A17,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>307.59611772359068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2028</v>
+      </c>
+      <c r="C18" s="4">
+        <f>_xlfn.FORECAST.ETS(A18,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3057.9758107268767</v>
+      </c>
+      <c r="D18" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A18,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>328.34814261606186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2029</v>
+      </c>
+      <c r="C19" s="4">
+        <f>_xlfn.FORECAST.ETS(A19,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3097.1617921254247</v>
+      </c>
+      <c r="D19" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A19,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>347.90623814806776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2030</v>
+      </c>
+      <c r="C20" s="4">
+        <f>_xlfn.FORECAST.ETS(A20,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3136.3477735239721</v>
+      </c>
+      <c r="D20" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A20,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>366.46165839261829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2031</v>
+      </c>
+      <c r="C21" s="4">
+        <f>_xlfn.FORECAST.ETS(A21,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3175.5337549225201</v>
+      </c>
+      <c r="D21" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A21,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>384.1597642029655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2032</v>
+      </c>
+      <c r="C22" s="4">
+        <f>_xlfn.FORECAST.ETS(A22,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3214.7197363210676</v>
+      </c>
+      <c r="D22" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A22,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>401.11409188489773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2033</v>
+      </c>
+      <c r="C23" s="4">
+        <f>_xlfn.FORECAST.ETS(A23,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3253.9057177196155</v>
+      </c>
+      <c r="D23" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A23,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>417.41532073565355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C24" s="4">
+        <f>_xlfn.FORECAST.ETS(A24,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3293.091699118163</v>
+      </c>
+      <c r="D24" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A24,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>433.13723269370576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2035</v>
+      </c>
+      <c r="C25" s="4">
+        <f>_xlfn.FORECAST.ETS(A25,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3332.2776805167109</v>
+      </c>
+      <c r="D25" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A25,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>448.34081219008033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2036</v>
+      </c>
+      <c r="C26" s="4">
+        <f>_xlfn.FORECAST.ETS(A26,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3371.4636619152589</v>
+      </c>
+      <c r="D26" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A26,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>463.07714979085631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2037</v>
+      </c>
+      <c r="C27" s="4">
+        <f>_xlfn.FORECAST.ETS(A27,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3410.6496433138063</v>
+      </c>
+      <c r="D27" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A27,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>477.38955034596682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2038</v>
+      </c>
+      <c r="C28" s="4">
+        <f>_xlfn.FORECAST.ETS(A28,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3449.8356247123538</v>
+      </c>
+      <c r="D28" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>491.31509677908429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2039</v>
+      </c>
+      <c r="C29" s="4">
+        <f>_xlfn.FORECAST.ETS(A29,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3489.0216061109018</v>
+      </c>
+      <c r="D29" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A29,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>504.88583201893141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2040</v>
+      </c>
+      <c r="C30" s="4">
+        <f>_xlfn.FORECAST.ETS(A30,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3528.2075875094497</v>
+      </c>
+      <c r="D30" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A30,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>518.12966718305563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2041</v>
+      </c>
+      <c r="C31" s="4">
+        <f>_xlfn.FORECAST.ETS(A31,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3567.3935689079972</v>
+      </c>
+      <c r="D31" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A31,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>531.07108971666207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2042</v>
+      </c>
+      <c r="C32" s="4">
+        <f>_xlfn.FORECAST.ETS(A32,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3606.5795503065451</v>
+      </c>
+      <c r="D32" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>543.73172282917415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2043</v>
+      </c>
+      <c r="C33" s="4">
+        <f>_xlfn.FORECAST.ETS(A33,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3645.7655317050926</v>
+      </c>
+      <c r="D33" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A33,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>556.13077269066559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2044</v>
+      </c>
+      <c r="C34" s="4">
+        <f>_xlfn.FORECAST.ETS(A34,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3684.9515131036405</v>
+      </c>
+      <c r="D34" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A34,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>568.28538973435172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2045</v>
+      </c>
+      <c r="C35" s="4">
+        <f>_xlfn.FORECAST.ETS(A35,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3724.137494502188</v>
+      </c>
+      <c r="D35" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A35,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>580.21096340148506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2046</v>
+      </c>
+      <c r="C36" s="4">
+        <f>_xlfn.FORECAST.ETS(A36,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3763.323475900736</v>
+      </c>
+      <c r="D36" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A36,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>591.92136472276411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2047</v>
+      </c>
+      <c r="C37" s="4">
+        <f>_xlfn.FORECAST.ETS(A37,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3802.5094572992839</v>
+      </c>
+      <c r="D37" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A37,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>603.42914759061841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2048</v>
+      </c>
+      <c r="C38" s="4">
+        <f>_xlfn.FORECAST.ETS(A38,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3841.6954386978314</v>
+      </c>
+      <c r="D38" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A38,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>614.74571700484262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2049</v>
+      </c>
+      <c r="C39" s="4">
+        <f>_xlfn.FORECAST.ETS(A39,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3880.8814200963789</v>
+      </c>
+      <c r="D39" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A39,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>625.88147068059857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C40" s="4">
+        <f>_xlfn.FORECAST.ETS(A40,$B$2:$B$10,$A$2:$A$10,1,1)</f>
+        <v>3920.0674014949268</v>
+      </c>
+      <c r="D40" s="4">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A40,$B$2:$B$10,$A$2:$A$10,0.9,1,1)</f>
+        <v>636.84591899685529</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -508,11 +2400,11 @@
         <v>83.79</v>
       </c>
       <c r="K2">
-        <f>SUM(F2:J2)</f>
+        <f t="shared" ref="K2:K25" si="0">SUM(F2:J2)</f>
         <v>381.00000000000006</v>
       </c>
       <c r="L2">
-        <f>K2/5</f>
+        <f t="shared" ref="L2:L25" si="1">K2/5</f>
         <v>76.200000000000017</v>
       </c>
     </row>
@@ -548,11 +2440,11 @@
         <v>45.55</v>
       </c>
       <c r="K3">
-        <f>SUM(F3:J3)</f>
+        <f t="shared" si="0"/>
         <v>186.14999999999998</v>
       </c>
       <c r="L3">
-        <f>K3/5</f>
+        <f t="shared" si="1"/>
         <v>37.229999999999997</v>
       </c>
     </row>
@@ -588,11 +2480,11 @@
         <v>120.12</v>
       </c>
       <c r="K4">
-        <f>SUM(F4:J4)</f>
+        <f t="shared" si="0"/>
         <v>527.12</v>
       </c>
       <c r="L4">
-        <f>K4/5</f>
+        <f t="shared" si="1"/>
         <v>105.42400000000001</v>
       </c>
     </row>
@@ -628,11 +2520,11 @@
         <v>64.95</v>
       </c>
       <c r="K5">
-        <f>SUM(F5:J5)</f>
+        <f t="shared" si="0"/>
         <v>300.24</v>
       </c>
       <c r="L5">
-        <f>K5/5</f>
+        <f t="shared" si="1"/>
         <v>60.048000000000002</v>
       </c>
     </row>
@@ -668,11 +2560,11 @@
         <v>549.27</v>
       </c>
       <c r="K6">
-        <f>SUM(F6:J6)</f>
+        <f t="shared" si="0"/>
         <v>2737.73</v>
       </c>
       <c r="L6">
-        <f>K6/5</f>
+        <f t="shared" si="1"/>
         <v>547.54600000000005</v>
       </c>
     </row>
@@ -708,11 +2600,11 @@
         <v>22.07</v>
       </c>
       <c r="K7">
-        <f>SUM(F7:J7)</f>
+        <f t="shared" si="0"/>
         <v>110.26999999999998</v>
       </c>
       <c r="L7">
-        <f>K7/5</f>
+        <f t="shared" si="1"/>
         <v>22.053999999999995</v>
       </c>
     </row>
@@ -748,11 +2640,11 @@
         <v>278.22000000000003</v>
       </c>
       <c r="K8">
-        <f>SUM(F8:J8)</f>
+        <f t="shared" si="0"/>
         <v>1507.27</v>
       </c>
       <c r="L8">
-        <f>K8/5</f>
+        <f t="shared" si="1"/>
         <v>301.45400000000001</v>
       </c>
     </row>
@@ -788,11 +2680,11 @@
         <v>276.49</v>
       </c>
       <c r="K9">
-        <f>SUM(F9:J9)</f>
+        <f t="shared" si="0"/>
         <v>1306.54</v>
       </c>
       <c r="L9">
-        <f>K9/5</f>
+        <f t="shared" si="1"/>
         <v>261.30799999999999</v>
       </c>
     </row>
@@ -828,11 +2720,11 @@
         <v>57.81</v>
       </c>
       <c r="K10">
-        <f>SUM(F10:J10)</f>
+        <f t="shared" si="0"/>
         <v>290.33000000000004</v>
       </c>
       <c r="L10">
-        <f>K10/5</f>
+        <f t="shared" si="1"/>
         <v>58.06600000000001</v>
       </c>
     </row>
@@ -868,11 +2760,11 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="K11">
-        <f>SUM(F11:J11)</f>
+        <f t="shared" si="0"/>
         <v>43.05</v>
       </c>
       <c r="L11">
-        <f>K11/5</f>
+        <f t="shared" si="1"/>
         <v>8.61</v>
       </c>
     </row>
@@ -908,11 +2800,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="K12">
-        <f>SUM(F12:J12)</f>
+        <f t="shared" si="0"/>
         <v>94.460000000000008</v>
       </c>
       <c r="L12">
-        <f>K12/5</f>
+        <f t="shared" si="1"/>
         <v>18.892000000000003</v>
       </c>
     </row>
@@ -948,11 +2840,11 @@
         <v>36.79</v>
       </c>
       <c r="K13">
-        <f>SUM(F13:J13)</f>
+        <f t="shared" si="0"/>
         <v>184.51999999999998</v>
       </c>
       <c r="L13">
-        <f>K13/5</f>
+        <f t="shared" si="1"/>
         <v>36.903999999999996</v>
       </c>
     </row>
@@ -988,11 +2880,11 @@
         <v>25.04</v>
       </c>
       <c r="K14">
-        <f>SUM(F14:J14)</f>
+        <f t="shared" si="0"/>
         <v>124.15</v>
       </c>
       <c r="L14">
-        <f>K14/5</f>
+        <f t="shared" si="1"/>
         <v>24.830000000000002</v>
       </c>
     </row>
@@ -1028,11 +2920,11 @@
         <v>20.98</v>
       </c>
       <c r="K15">
-        <f>SUM(F15:J15)</f>
+        <f t="shared" si="0"/>
         <v>101.26</v>
       </c>
       <c r="L15">
-        <f>K15/5</f>
+        <f t="shared" si="1"/>
         <v>20.252000000000002</v>
       </c>
     </row>
@@ -1068,11 +2960,11 @@
         <v>3.74</v>
       </c>
       <c r="K16">
-        <f>SUM(F16:J16)</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
       <c r="L16">
-        <f>K16/5</f>
+        <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -1108,11 +3000,11 @@
         <v>126.36</v>
       </c>
       <c r="K17">
-        <f>SUM(F17:J17)</f>
+        <f t="shared" si="0"/>
         <v>601.68000000000006</v>
       </c>
       <c r="L17">
-        <f>K17/5</f>
+        <f t="shared" si="1"/>
         <v>120.33600000000001</v>
       </c>
     </row>
@@ -1148,11 +3040,11 @@
         <v>0.78</v>
       </c>
       <c r="K18">
-        <f>SUM(F18:J18)</f>
+        <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
       <c r="L18">
-        <f>K18/5</f>
+        <f t="shared" si="1"/>
         <v>0.52800000000000002</v>
       </c>
     </row>
@@ -1188,11 +3080,11 @@
         <v>18.88</v>
       </c>
       <c r="K19">
-        <f>SUM(F19:J19)</f>
+        <f t="shared" si="0"/>
         <v>78.509999999999991</v>
       </c>
       <c r="L19">
-        <f>K19/5</f>
+        <f t="shared" si="1"/>
         <v>15.701999999999998</v>
       </c>
     </row>
@@ -1228,11 +3120,11 @@
         <v>24.43</v>
       </c>
       <c r="K20">
-        <f>SUM(F20:J20)</f>
+        <f t="shared" si="0"/>
         <v>126.93</v>
       </c>
       <c r="L20">
-        <f>K20/5</f>
+        <f t="shared" si="1"/>
         <v>25.386000000000003</v>
       </c>
     </row>
@@ -1268,11 +3160,11 @@
         <v>36.19</v>
       </c>
       <c r="K21">
-        <f>SUM(F21:J21)</f>
+        <f t="shared" si="0"/>
         <v>174.76</v>
       </c>
       <c r="L21">
-        <f>K21/5</f>
+        <f t="shared" si="1"/>
         <v>34.951999999999998</v>
       </c>
     </row>
@@ -1308,11 +3200,11 @@
         <v>64.47</v>
       </c>
       <c r="K22">
-        <f>SUM(F22:J22)</f>
+        <f t="shared" si="0"/>
         <v>334.85</v>
       </c>
       <c r="L22">
-        <f>K22/5</f>
+        <f t="shared" si="1"/>
         <v>66.97</v>
       </c>
     </row>
@@ -1348,11 +3240,11 @@
         <v>431.87</v>
       </c>
       <c r="K23">
-        <f>SUM(F23:J23)</f>
+        <f t="shared" si="0"/>
         <v>2197.69</v>
       </c>
       <c r="L23">
-        <f>K23/5</f>
+        <f t="shared" si="1"/>
         <v>439.53800000000001</v>
       </c>
     </row>
@@ -1388,11 +3280,11 @@
         <v>32.39</v>
       </c>
       <c r="K24">
-        <f>SUM(F24:J24)</f>
+        <f t="shared" si="0"/>
         <v>165.14999999999998</v>
       </c>
       <c r="L24">
-        <f>K24/5</f>
+        <f t="shared" si="1"/>
         <v>33.029999999999994</v>
       </c>
     </row>
@@ -1428,17 +3320,75 @@
         <v>2744.34</v>
       </c>
       <c r="K25">
-        <f>SUM(F25:J25)</f>
+        <f t="shared" si="0"/>
         <v>13454.830000000002</v>
       </c>
       <c r="L25">
-        <f>K25/5</f>
+        <f t="shared" si="1"/>
         <v>2690.9660000000003</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2012</v>
+      </c>
+      <c r="C28">
+        <v>2013</v>
+      </c>
+      <c r="D28">
+        <v>2014</v>
+      </c>
+      <c r="E28">
+        <v>2015</v>
+      </c>
+      <c r="F28">
+        <v>2016</v>
+      </c>
+      <c r="G28">
+        <v>2017</v>
+      </c>
+      <c r="H28">
+        <v>2018</v>
+      </c>
+      <c r="I28">
+        <v>2019</v>
+      </c>
+      <c r="J28">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>2318.12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2557.7800000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2608.3000000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2584.04</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2661.25</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2693.6</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2647.77</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2707.87</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2744.34</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:L25">
